--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220405.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220405.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="270">
   <si>
     <t>사이트</t>
   </si>
@@ -783,6 +783,9 @@
   </si>
   <si>
     <t>빅히트</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>P NATION</t>
@@ -2508,6 +2511,12 @@
       <c r="F51" t="s">
         <v>203</v>
       </c>
+      <c r="G51" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
@@ -2529,7 +2538,7 @@
         <v>204</v>
       </c>
       <c r="G52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H52" t="s">
         <v>238</v>
@@ -2607,7 +2616,7 @@
         <v>62</v>
       </c>
       <c r="G55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H55" t="s">
         <v>238</v>
@@ -2789,7 +2798,7 @@
         <v>69</v>
       </c>
       <c r="G62" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H62" t="s">
         <v>238</v>
@@ -2938,6 +2947,12 @@
       <c r="F68" t="s">
         <v>211</v>
       </c>
+      <c r="G68" t="s">
+        <v>256</v>
+      </c>
+      <c r="H68" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
@@ -2959,7 +2974,7 @@
         <v>76</v>
       </c>
       <c r="G69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H69" t="s">
         <v>238</v>
@@ -2985,10 +3000,10 @@
         <v>212</v>
       </c>
       <c r="G70" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H70" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3193,7 +3208,7 @@
         <v>85</v>
       </c>
       <c r="G78" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H78" t="s">
         <v>238</v>
@@ -3245,7 +3260,7 @@
         <v>217</v>
       </c>
       <c r="G80" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H80" t="s">
         <v>238</v>
@@ -3297,7 +3312,7 @@
         <v>219</v>
       </c>
       <c r="G82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H82" t="s">
         <v>238</v>
@@ -3323,7 +3338,7 @@
         <v>220</v>
       </c>
       <c r="G83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H83" t="s">
         <v>238</v>
@@ -3427,7 +3442,7 @@
         <v>223</v>
       </c>
       <c r="G87" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H87" t="s">
         <v>238</v>
@@ -3479,7 +3494,7 @@
         <v>96</v>
       </c>
       <c r="G89" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H89" t="s">
         <v>238</v>
@@ -3557,7 +3572,7 @@
         <v>99</v>
       </c>
       <c r="G92" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H92" t="s">
         <v>238</v>
@@ -3635,7 +3650,7 @@
         <v>228</v>
       </c>
       <c r="G95" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H95" t="s">
         <v>238</v>
@@ -3661,7 +3676,7 @@
         <v>229</v>
       </c>
       <c r="G96" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H96" t="s">
         <v>238</v>
@@ -3765,7 +3780,7 @@
         <v>230</v>
       </c>
       <c r="G100" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H100" t="s">
         <v>238</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220405.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220405.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>TOMBOY</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220405.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220405.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="269">
   <si>
     <t>사이트</t>
   </si>
@@ -765,9 +765,6 @@
   </si>
   <si>
     <t>스윙</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>SSK</t>
@@ -2018,7 +2015,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H32" t="s">
         <v>238</v>
@@ -2070,7 +2067,7 @@
         <v>193</v>
       </c>
       <c r="G34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H34" t="s">
         <v>238</v>
@@ -2096,7 +2093,7 @@
         <v>194</v>
       </c>
       <c r="G35" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H35" t="s">
         <v>238</v>
@@ -2148,7 +2145,7 @@
         <v>196</v>
       </c>
       <c r="G37" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H37" t="s">
         <v>238</v>
@@ -2330,7 +2327,7 @@
         <v>199</v>
       </c>
       <c r="G44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H44" t="s">
         <v>238</v>
@@ -2434,7 +2431,7 @@
         <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H48" t="s">
         <v>238</v>
@@ -2460,7 +2457,7 @@
         <v>56</v>
       </c>
       <c r="G49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H49" t="s">
         <v>238</v>
@@ -2486,10 +2483,10 @@
         <v>202</v>
       </c>
       <c r="G50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2512,7 +2509,7 @@
         <v>203</v>
       </c>
       <c r="G51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H51" t="s">
         <v>238</v>
@@ -2538,7 +2535,7 @@
         <v>204</v>
       </c>
       <c r="G52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H52" t="s">
         <v>238</v>
@@ -2616,7 +2613,7 @@
         <v>62</v>
       </c>
       <c r="G55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H55" t="s">
         <v>238</v>
@@ -2746,10 +2743,10 @@
         <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2798,7 +2795,7 @@
         <v>69</v>
       </c>
       <c r="G62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H62" t="s">
         <v>238</v>
@@ -2948,7 +2945,7 @@
         <v>211</v>
       </c>
       <c r="G68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H68" t="s">
         <v>238</v>
@@ -2974,7 +2971,7 @@
         <v>76</v>
       </c>
       <c r="G69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H69" t="s">
         <v>238</v>
@@ -3000,10 +2997,10 @@
         <v>212</v>
       </c>
       <c r="G70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3026,10 +3023,10 @@
         <v>213</v>
       </c>
       <c r="G71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3156,7 +3153,7 @@
         <v>189</v>
       </c>
       <c r="G76" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H76" t="s">
         <v>238</v>
@@ -3208,7 +3205,7 @@
         <v>85</v>
       </c>
       <c r="G78" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H78" t="s">
         <v>238</v>
@@ -3260,7 +3257,7 @@
         <v>217</v>
       </c>
       <c r="G80" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H80" t="s">
         <v>238</v>
@@ -3312,7 +3309,7 @@
         <v>219</v>
       </c>
       <c r="G82" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H82" t="s">
         <v>238</v>
@@ -3338,7 +3335,7 @@
         <v>220</v>
       </c>
       <c r="G83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H83" t="s">
         <v>238</v>
@@ -3442,7 +3439,7 @@
         <v>223</v>
       </c>
       <c r="G87" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H87" t="s">
         <v>238</v>
@@ -3494,7 +3491,7 @@
         <v>96</v>
       </c>
       <c r="G89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H89" t="s">
         <v>238</v>
@@ -3572,7 +3569,7 @@
         <v>99</v>
       </c>
       <c r="G92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H92" t="s">
         <v>238</v>
@@ -3650,7 +3647,7 @@
         <v>228</v>
       </c>
       <c r="G95" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H95" t="s">
         <v>238</v>
@@ -3676,7 +3673,7 @@
         <v>229</v>
       </c>
       <c r="G96" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H96" t="s">
         <v>238</v>
@@ -3780,7 +3777,7 @@
         <v>230</v>
       </c>
       <c r="G100" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H100" t="s">
         <v>238</v>
